--- a/Processes/MFS_Self_Service_Working/MFS_Self_Service_Working/Data/Config.xlsx
+++ b/Processes/MFS_Self_Service_Working/MFS_Self_Service_Working/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radu.negoita\Desktop\MFS_Self_Service_Working\MFS_Self_Service_Working\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_1\Desktop\OAMF_ManufacturingFiledSelfServiceOpenAI-master\OAMF_ManufacturingFiledSelfServiceOpenAI-master\Processes\MFS_Self_Service_Working\MFS_Self_Service_Working\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0918D-0DD7-4494-AA24-A559EC851F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A386DA5-356F-4279-9919-8A62A295F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3678" yWindow="3396" windowWidth="17280" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
     <t>PLD</t>
   </si>
   <si>
-    <t>SAP S4 HANA 1909 (001)</t>
+    <t>S4H 1909</t>
   </si>
 </sst>
 </file>
@@ -372,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -412,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -518,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -660,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,15 +671,15 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.578125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="81.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1">
@@ -716,7 +716,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -725,10 +725,10 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:26" s="6" customFormat="1">
+    <row r="4" spans="1:26" s="6" customFormat="1" ht="14.4">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1">
@@ -1892,12 +1892,12 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="75.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1934,7 +1934,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3004,12 +3004,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.83984375" customWidth="1"/>
+    <col min="2" max="2" width="30.15625" customWidth="1"/>
+    <col min="3" max="3" width="60.41796875" customWidth="1"/>
+    <col min="4" max="26" width="65.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -4061,13 +4061,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.26171875" customWidth="1"/>
+    <col min="2" max="2" width="17.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.3">
       <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
@@ -4124,15 +4124,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15625" customWidth="1"/>
+    <col min="4" max="4" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.3">
       <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
